--- a/MyTeam/Content/templates/ProjReportT.xlsx
+++ b/MyTeam/Content/templates/ProjReportT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\zhoumeng\Documents\visual studio 2013\Projects\MyRpt\MyRpt\Content\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhouMeng\Desktop\团队管理系统\MyTeam\MyTeam\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>项目调研</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,6 +154,10 @@
   </si>
   <si>
     <t>验收结果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否跟踪需求变更</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,6 +290,15 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -294,15 +307,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -584,76 +588,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF2"/>
+  <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="6" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" style="7" customWidth="1"/>
-    <col min="3" max="3" width="20" style="7" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="7" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="7" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" style="7" customWidth="1"/>
-    <col min="7" max="7" width="16.42578125" style="7" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="7" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="7" customWidth="1"/>
-    <col min="10" max="10" width="11.140625" style="7" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" style="7" customWidth="1"/>
-    <col min="12" max="32" width="15.140625" style="7" customWidth="1"/>
-    <col min="33" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="6" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.86328125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="20" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.1328125" style="4" customWidth="1"/>
+    <col min="5" max="6" width="16.86328125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.3984375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.3984375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.265625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.3984375" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.1328125" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.59765625" style="4" customWidth="1"/>
+    <col min="13" max="33" width="15.1328125" style="4" customWidth="1"/>
+    <col min="34" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="2" t="s">
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="2" t="s">
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="4"/>
-      <c r="T1" s="2" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="7"/>
+      <c r="U1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="U1" s="3"/>
-      <c r="V1" s="3"/>
-      <c r="W1" s="3"/>
-      <c r="X1" s="3"/>
-      <c r="Y1" s="4"/>
-      <c r="Z1" s="2" t="s">
+      <c r="V1" s="6"/>
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="7"/>
+      <c r="AA1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="3"/>
-      <c r="AB1" s="4"/>
-      <c r="AC1" s="2" t="s">
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="7"/>
+      <c r="AD1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="3"/>
-      <c r="AE1" s="3"/>
-      <c r="AF1" s="4"/>
+      <c r="AE1" s="6"/>
+      <c r="AF1" s="6"/>
+      <c r="AG1" s="7"/>
     </row>
-    <row r="2" spans="1:32" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -670,95 +675,98 @@
         <v>21</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="U2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="V2" s="1" t="s">
+      <c r="W2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="1" t="s">
+      <c r="X2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="1" t="s">
+      <c r="Y2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="1" t="s">
+      <c r="Z2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Z2" s="1" t="s">
+      <c r="AA2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AA2" s="1" t="s">
+      <c r="AB2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AB2" s="1" t="s">
+      <c r="AC2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AC2" s="1" t="s">
+      <c r="AD2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AE2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AE2" s="1" t="s">
+      <c r="AF2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AF2" s="1" t="s">
+      <c r="AG2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="B1:I1"/>
-    <mergeCell ref="J1:M1"/>
-    <mergeCell ref="N1:S1"/>
-    <mergeCell ref="T1:Y1"/>
-    <mergeCell ref="Z1:AB1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="U1:Z1"/>
+    <mergeCell ref="AA1:AC1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MyTeam/Content/templates/ProjReportT.xlsx
+++ b/MyTeam/Content/templates/ProjReportT.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZhouMeng\Desktop\团队管理系统\MyTeam\MyTeam\Content\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\VS Projects\MyTeam\MyTeam\Content\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -591,27 +591,27 @@
   <dimension ref="A1:AG2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.86328125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" style="4" customWidth="1"/>
     <col min="3" max="3" width="20" style="4" customWidth="1"/>
-    <col min="4" max="4" width="19.1328125" style="4" customWidth="1"/>
-    <col min="5" max="6" width="16.86328125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="20.3984375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.3984375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="13.265625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="14.3984375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.1328125" style="4" customWidth="1"/>
-    <col min="12" max="12" width="12.59765625" style="4" customWidth="1"/>
-    <col min="13" max="33" width="15.1328125" style="4" customWidth="1"/>
-    <col min="34" max="16384" width="9.1328125" style="2"/>
+    <col min="4" max="4" width="19.140625" style="4" customWidth="1"/>
+    <col min="5" max="6" width="16.85546875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="20.42578125" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.42578125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="4" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="4" customWidth="1"/>
+    <col min="11" max="11" width="11.140625" style="4" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" style="4" customWidth="1"/>
+    <col min="13" max="33" width="15.140625" style="4" customWidth="1"/>
+    <col min="34" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="5" t="s">
         <v>7</v>
@@ -658,7 +658,7 @@
       <c r="AF1" s="6"/>
       <c r="AG1" s="7"/>
     </row>
-    <row r="2" spans="1:33" s="3" customFormat="1" ht="25.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" s="3" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
